--- a/file/template_doing_bom.xlsx
+++ b/file/template_doing_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\py\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14467C95-D577-4191-B1F2-8B8670AF6736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54232AA9-6764-46FA-98CC-AA4243E8128B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="16005" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15195" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="1" r:id="rId1"/>
